--- a/MBF04S.xlsx
+++ b/MBF04S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="419">
   <si>
     <t/>
   </si>
@@ -502,24 +502,33 @@
     <t>20094283</t>
   </si>
   <si>
-    <t>INDOMILK KM PTH 545G</t>
+    <t>INDOMILK KM PTH 535G</t>
   </si>
   <si>
     <t>20120855</t>
   </si>
   <si>
-    <t>INDOMILK SWIS CHO545</t>
+    <t>INDOMILK SWIS CHO535</t>
   </si>
   <si>
     <t>20125783</t>
   </si>
   <si>
-    <t>CAP/ENAK KKM PTH 545</t>
+    <t>CAP/ENAK KKM PTH 535</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>20141099</t>
+  </si>
+  <si>
+    <t>FF CRMY GULA ARN 240</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>10005489</t>
   </si>
   <si>
@@ -680,9 +689,6 @@
   </si>
   <si>
     <t>VDORAN XMRT1+ MDU350</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>20098368</t>
@@ -1654,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F193"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3195,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>18</v>
@@ -3206,10 +3212,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -3218,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>18</v>
@@ -3226,10 +3232,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -3238,7 +3244,7 @@
         <v>31</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>18</v>
@@ -3246,10 +3252,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -3258,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>18</v>
@@ -3266,10 +3272,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -3278,18 +3284,18 @@
         <v>31</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -3298,7 +3304,7 @@
         <v>31</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>25</v>
@@ -3306,10 +3312,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -3318,7 +3324,7 @@
         <v>31</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>25</v>
@@ -3326,10 +3332,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -3338,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>25</v>
@@ -3346,10 +3352,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -3358,7 +3364,7 @@
         <v>31</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>25</v>
@@ -3366,10 +3372,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3378,27 +3384,27 @@
         <v>31</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>83</v>
@@ -3406,10 +3412,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -3418,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>83</v>
@@ -3426,10 +3432,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -3438,7 +3444,7 @@
         <v>34</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>83</v>
@@ -3446,10 +3452,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -3458,7 +3464,7 @@
         <v>34</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>83</v>
@@ -3466,10 +3472,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -3478,7 +3484,7 @@
         <v>34</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>83</v>
@@ -3486,10 +3492,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -3498,7 +3504,7 @@
         <v>34</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>83</v>
@@ -3506,30 +3512,30 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -3538,18 +3544,18 @@
         <v>38</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3558,18 +3564,18 @@
         <v>38</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3578,18 +3584,18 @@
         <v>38</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3598,38 +3604,38 @@
         <v>38</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -3638,7 +3644,7 @@
         <v>168</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3646,10 +3652,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -3658,7 +3664,7 @@
         <v>168</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3666,10 +3672,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -3678,7 +3684,7 @@
         <v>168</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3686,10 +3692,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3698,7 +3704,7 @@
         <v>168</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3706,19 +3712,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3735,13 +3741,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,13 +3761,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3795,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3815,30 +3821,30 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>35</v>
@@ -3855,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3895,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3915,30 +3921,30 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>25</v>
@@ -3955,13 +3961,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,13 +3981,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,13 +4001,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4021,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4055,30 +4061,30 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>83</v>
@@ -4095,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>83</v>
@@ -4115,10 +4121,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>83</v>
@@ -4135,10 +4141,10 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>83</v>
@@ -4155,30 +4161,30 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4195,10 +4201,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -4215,10 +4221,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -4235,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
@@ -4255,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4275,10 +4281,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -4295,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4306,19 +4312,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E133" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4335,10 +4341,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4355,10 +4361,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4375,10 +4381,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4395,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4415,10 +4421,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -4426,19 +4432,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -4455,10 +4461,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
@@ -4475,10 +4481,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>5</v>
@@ -4495,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4515,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4526,19 +4532,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4555,10 +4561,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4575,10 +4581,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4595,13 +4601,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4615,30 +4621,30 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4655,13 +4661,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,13 +4681,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4695,10 +4701,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4715,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4726,19 +4732,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4755,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4775,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -4795,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -4815,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -4835,13 +4841,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,30 +4861,30 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4895,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -4915,10 +4921,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4935,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -4955,10 +4961,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -4966,19 +4972,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -4995,10 +5001,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -5015,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -5035,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5055,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5075,10 +5081,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5086,19 +5092,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5115,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5135,10 +5141,10 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5155,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5175,10 +5181,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5195,10 +5201,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5206,19 +5212,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5235,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5255,10 +5261,10 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5275,10 +5281,10 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5295,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -5306,19 +5312,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -5335,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -5355,10 +5361,10 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>5</v>
@@ -5375,10 +5381,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5395,10 +5401,10 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -5415,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
@@ -5426,22 +5432,22 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,10 +5461,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>25</v>
@@ -5475,13 +5481,13 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5495,12 +5501,32 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/MBF04S.xlsx
+++ b/MBF04S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="407">
   <si>
     <t/>
   </si>
@@ -49,117 +49,105 @@
     <t>3</t>
   </si>
   <si>
-    <t>20004386</t>
-  </si>
-  <si>
-    <t>NESTLE WRT BYM LB120</t>
+    <t>20032058</t>
+  </si>
+  <si>
+    <t>FF KENTAL MANIS 6X37</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>10015124</t>
+  </si>
+  <si>
+    <t>FF SKM COKLAT 6X37</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20013435</t>
+  </si>
+  <si>
+    <t>ENAK K/MNS PUTIH 6'S</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20013434</t>
+  </si>
+  <si>
+    <t>INDOMILK SKM CKT6X37</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20013433</t>
+  </si>
+  <si>
+    <t>INDOMILK SKM PTH6X37</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20101859</t>
+  </si>
+  <si>
+    <t>SUNBAY EVP.MILK 380G</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20105631</t>
+  </si>
+  <si>
+    <t>CARNATION KKM 405G</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10000724</t>
+  </si>
+  <si>
+    <t>SUN BBR SS BRS/M 120</t>
+  </si>
+  <si>
+    <t>10031256</t>
+  </si>
+  <si>
+    <t>SUN BBR SS AYM&amp;B 120</t>
+  </si>
+  <si>
+    <t>20073496</t>
+  </si>
+  <si>
+    <t>SUN BBR SS UBI/U120G</t>
+  </si>
+  <si>
+    <t>10022197</t>
+  </si>
+  <si>
+    <t>SUN BBR.PISANG SC120</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>20032058</t>
-  </si>
-  <si>
-    <t>FF KENTAL MANIS 6X37</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>10015124</t>
-  </si>
-  <si>
-    <t>FF SKM COKLAT 6X37</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20013435</t>
-  </si>
-  <si>
-    <t>ENAK K/MNS PUTIH 6'S</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20013434</t>
-  </si>
-  <si>
-    <t>INDOMILK SKM CKT6X37</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20013433</t>
-  </si>
-  <si>
-    <t>INDOMILK SKM PTH6X37</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20101859</t>
-  </si>
-  <si>
-    <t>SUNBAY EVP.MILK 380G</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20105631</t>
-  </si>
-  <si>
-    <t>CARNATION KKM 405G</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10000724</t>
-  </si>
-  <si>
-    <t>SUN BBR SS BRS/M 120</t>
-  </si>
-  <si>
-    <t>10031256</t>
-  </si>
-  <si>
-    <t>SUN BBR SS AYM&amp;B 120</t>
-  </si>
-  <si>
-    <t>10037727</t>
-  </si>
-  <si>
-    <t>SUN BBR SS PSNG 120G</t>
-  </si>
-  <si>
-    <t>20073496</t>
-  </si>
-  <si>
-    <t>SUN BBR SS UBI/U120G</t>
-  </si>
-  <si>
-    <t>10022197</t>
-  </si>
-  <si>
-    <t>SUN BBR.PISANG SC120</t>
-  </si>
-  <si>
     <t>10000146</t>
   </si>
   <si>
@@ -493,12 +481,6 @@
     <t>FF GOLD SKM PTH 240G</t>
   </si>
   <si>
-    <t>20132814</t>
-  </si>
-  <si>
-    <t>FF SKM KRN.STRWB 260</t>
-  </si>
-  <si>
     <t>20094283</t>
   </si>
   <si>
@@ -517,180 +499,174 @@
     <t>CAP/ENAK KKM PTH 535</t>
   </si>
   <si>
+    <t>20141099</t>
+  </si>
+  <si>
+    <t>FF CRMY GULA ARN 240</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>20141099</t>
-  </si>
-  <si>
-    <t>FF CRMY GULA ARN 240</t>
+    <t>10005489</t>
+  </si>
+  <si>
+    <t>FF KENTAL MANIS 370G</t>
+  </si>
+  <si>
+    <t>10000255</t>
+  </si>
+  <si>
+    <t>FF GOLD SKM PTH 370G</t>
+  </si>
+  <si>
+    <t>20089819</t>
+  </si>
+  <si>
+    <t>FF KENTAL MANIS 490G</t>
+  </si>
+  <si>
+    <t>10000088</t>
+  </si>
+  <si>
+    <t>FF SKM CKLT KLG 370</t>
+  </si>
+  <si>
+    <t>20136704</t>
+  </si>
+  <si>
+    <t>INDOMLK KM DURIAN370</t>
+  </si>
+  <si>
+    <t>10031572</t>
+  </si>
+  <si>
+    <t>ENAK K/MNS COKLT370G</t>
+  </si>
+  <si>
+    <t>10000021</t>
+  </si>
+  <si>
+    <t>ENAK K/MNS PUTIH 370</t>
+  </si>
+  <si>
+    <t>20087580</t>
+  </si>
+  <si>
+    <t>ENTRASOL GLD VAN560</t>
+  </si>
+  <si>
+    <t>10025373</t>
+  </si>
+  <si>
+    <t>ENTRASOL GOLD VAN170</t>
+  </si>
+  <si>
+    <t>20021571</t>
+  </si>
+  <si>
+    <t>ANLENE GOLD VAN 570G</t>
+  </si>
+  <si>
+    <t>10020147</t>
+  </si>
+  <si>
+    <t>ANLENE GOLD CKLT 230</t>
+  </si>
+  <si>
+    <t>10008064</t>
+  </si>
+  <si>
+    <t>ANLENE GOLD ORG240G</t>
+  </si>
+  <si>
+    <t>10012198</t>
+  </si>
+  <si>
+    <t>ANLENE ACTF VNL 230G</t>
+  </si>
+  <si>
+    <t>10012172</t>
+  </si>
+  <si>
+    <t>ANLENE GOLD VNLA 230</t>
+  </si>
+  <si>
+    <t>10000578</t>
+  </si>
+  <si>
+    <t>DIABETASOL VNL.170GR</t>
+  </si>
+  <si>
+    <t>20098371</t>
+  </si>
+  <si>
+    <t>VDORAN SUSU MADU 350</t>
+  </si>
+  <si>
+    <t>20098369</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT3+ VAN350</t>
+  </si>
+  <si>
+    <t>20138473</t>
+  </si>
+  <si>
+    <t>VDORAN BABY6-12 900G</t>
+  </si>
+  <si>
+    <t>20117981</t>
+  </si>
+  <si>
+    <t>VIDORAN XM3+ VNL900</t>
+  </si>
+  <si>
+    <t>20138474</t>
+  </si>
+  <si>
+    <t>VIDORAN 5  MADU 900G</t>
+  </si>
+  <si>
+    <t>20070110</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT1+ MDU700</t>
+  </si>
+  <si>
+    <t>20090042</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT1+ VAN700</t>
+  </si>
+  <si>
+    <t>20082394</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT3+ MDU700</t>
+  </si>
+  <si>
+    <t>20090437</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT3+ VAN700</t>
+  </si>
+  <si>
+    <t>20117985</t>
+  </si>
+  <si>
+    <t>VIDORAN XM5+ MADU700</t>
+  </si>
+  <si>
+    <t>20098370</t>
+  </si>
+  <si>
+    <t>VDORAN XMRT1+ MDU350</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>10005489</t>
-  </si>
-  <si>
-    <t>FF KENTAL MANIS 370G</t>
-  </si>
-  <si>
-    <t>10000255</t>
-  </si>
-  <si>
-    <t>FF GOLD SKM PTH 370G</t>
-  </si>
-  <si>
-    <t>20089819</t>
-  </si>
-  <si>
-    <t>FF KENTAL MANIS 490G</t>
-  </si>
-  <si>
-    <t>10000088</t>
-  </si>
-  <si>
-    <t>FF SKM CKLT KLG 370</t>
-  </si>
-  <si>
-    <t>10000019</t>
-  </si>
-  <si>
-    <t>INDOMILK SKM PTH 370</t>
-  </si>
-  <si>
-    <t>20136704</t>
-  </si>
-  <si>
-    <t>INDOMLK KM DURIAN370</t>
-  </si>
-  <si>
-    <t>10031572</t>
-  </si>
-  <si>
-    <t>ENAK K/MNS COKLT370G</t>
-  </si>
-  <si>
-    <t>10000021</t>
-  </si>
-  <si>
-    <t>ENAK K/MNS PUTIH 370</t>
-  </si>
-  <si>
-    <t>20087580</t>
-  </si>
-  <si>
-    <t>ENTRASOL GLD VAN560</t>
-  </si>
-  <si>
-    <t>10025373</t>
-  </si>
-  <si>
-    <t>ENTRASOL GOLD VAN170</t>
-  </si>
-  <si>
-    <t>20021571</t>
-  </si>
-  <si>
-    <t>ANLENE GOLD VAN 570G</t>
-  </si>
-  <si>
-    <t>10020147</t>
-  </si>
-  <si>
-    <t>ANLENE GOLD CKLT 230</t>
-  </si>
-  <si>
-    <t>10008064</t>
-  </si>
-  <si>
-    <t>ANLENE GOLD ORG240G</t>
-  </si>
-  <si>
-    <t>10012198</t>
-  </si>
-  <si>
-    <t>ANLENE ACTF VNL 230G</t>
-  </si>
-  <si>
-    <t>10012172</t>
-  </si>
-  <si>
-    <t>ANLENE GOLD VNLA 230</t>
-  </si>
-  <si>
-    <t>10000578</t>
-  </si>
-  <si>
-    <t>DIABETASOL VNL.170GR</t>
-  </si>
-  <si>
-    <t>20098371</t>
-  </si>
-  <si>
-    <t>VDORAN SUSU MADU 350</t>
-  </si>
-  <si>
-    <t>20098369</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT3+ VAN350</t>
-  </si>
-  <si>
-    <t>20138473</t>
-  </si>
-  <si>
-    <t>VDORAN BABY6-12 925G</t>
-  </si>
-  <si>
-    <t>20117981</t>
-  </si>
-  <si>
-    <t>VIDORAN XM3+ VNL925</t>
-  </si>
-  <si>
-    <t>20138474</t>
-  </si>
-  <si>
-    <t>VIDORAN 5  MADU 925G</t>
-  </si>
-  <si>
-    <t>20070110</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT1+ MDU700</t>
-  </si>
-  <si>
-    <t>20090042</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT1+ VAN700</t>
-  </si>
-  <si>
-    <t>20082394</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT3+ MDU700</t>
-  </si>
-  <si>
-    <t>20090437</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT3+ VAN700</t>
-  </si>
-  <si>
-    <t>20117985</t>
-  </si>
-  <si>
-    <t>VIDORAN XM5+ MADU700</t>
-  </si>
-  <si>
-    <t>20098370</t>
-  </si>
-  <si>
-    <t>VDORAN XMRT1+ MDU350</t>
-  </si>
-  <si>
     <t>20098368</t>
   </si>
   <si>
@@ -700,19 +676,19 @@
     <t>20113346</t>
   </si>
   <si>
-    <t>VDRAN XMRT1+ VAN 925</t>
+    <t>VDRAN XMRT1+ VAN 900</t>
   </si>
   <si>
     <t>20101825</t>
   </si>
   <si>
-    <t>VDRAN XMRT1+ MDU 925</t>
+    <t>VDRAN XMRT1+ MDU 900</t>
   </si>
   <si>
     <t>20106381</t>
   </si>
   <si>
-    <t>VDRAN XMRT3+ MDU 925</t>
+    <t>VDRAN XMRT3+ MDU 900</t>
   </si>
   <si>
     <t>20135200</t>
@@ -787,12 +763,6 @@
     <t>MILO 3IN1 ACT-GO 400</t>
   </si>
   <si>
-    <t>20095418</t>
-  </si>
-  <si>
-    <t>MILO ACTIVE-GO 10'S</t>
-  </si>
-  <si>
     <t>10003653</t>
   </si>
   <si>
@@ -1022,12 +992,6 @@
   </si>
   <si>
     <t>DNCOW FRTGO BOX 195G</t>
-  </si>
-  <si>
-    <t>10010509</t>
-  </si>
-  <si>
-    <t>DNCOW FRTGO COK 195G</t>
   </si>
   <si>
     <t>10009494</t>
@@ -1660,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F187"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1767,15 +1731,15 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1784,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,15 +1771,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1824,10 +1788,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,15 +1831,15 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1884,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,21 +1865,21 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1924,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1932,10 +1896,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1944,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1952,10 +1916,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1964,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2027,7 +1991,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,10 +2008,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2031,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,13 +2045,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -2144,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -2204,10 +2168,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,10 +2188,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -2261,13 +2225,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -2301,53 +2265,53 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,13 +2325,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,13 +2345,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,10 +2388,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,13 +2405,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,13 +2445,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,13 +2465,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,10 +2485,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2541,13 +2505,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,13 +2525,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,13 +2545,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,13 +2585,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,13 +2605,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,13 +2625,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,13 +2645,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,13 +2665,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,13 +2685,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,10 +2708,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,10 +2728,10 @@
         <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,13 +2745,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,13 +2765,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,13 +2785,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,13 +2805,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,13 +2825,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,13 +2845,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,13 +2865,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,13 +2885,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,13 +2905,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,13 +2945,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,13 +2965,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,13 +2985,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3041,13 +3005,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,13 +3025,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,13 +3045,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,13 +3085,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,21 +3105,21 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -3164,18 +3128,18 @@
         <v>28</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
@@ -3184,10 +3148,10 @@
         <v>28</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,138 +3168,138 @@
         <v>28</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -3344,18 +3308,18 @@
         <v>31</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -3364,18 +3328,18 @@
         <v>31</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3384,18 +3348,18 @@
         <v>31</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3404,207 +3368,207 @@
         <v>31</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3612,39 +3576,39 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3652,19 +3616,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3681,13 +3645,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,10 +3665,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3721,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3741,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3761,50 +3725,50 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3812,19 +3776,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3832,22 +3796,22 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,50 +3825,50 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3912,42 +3876,42 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,13 +3925,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,210 +3945,210 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4201,10 +4165,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -4221,10 +4185,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -4232,19 +4196,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
@@ -4252,19 +4216,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4272,19 +4236,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -4292,19 +4256,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4312,19 +4276,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4341,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4352,19 +4316,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4372,19 +4336,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4392,19 +4356,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4412,19 +4376,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -4432,16 +4396,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>4</v>
@@ -4452,16 +4416,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
@@ -4472,16 +4436,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>11</v>
@@ -4492,19 +4456,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4512,36 +4476,36 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4</v>
@@ -4552,16 +4516,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>8</v>
@@ -4572,39 +4536,39 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4612,36 +4576,36 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>4</v>
@@ -4652,16 +4616,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>8</v>
@@ -4672,36 +4636,36 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>14</v>
@@ -4712,19 +4676,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4732,22 +4696,22 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4761,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4772,19 +4736,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -4792,19 +4756,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -4812,19 +4776,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -4832,19 +4796,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4852,39 +4816,39 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4892,19 +4856,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -4912,19 +4876,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4932,16 +4896,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>14</v>
@@ -4952,19 +4916,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -4972,16 +4936,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>4</v>
@@ -4992,16 +4956,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>8</v>
@@ -5012,16 +4976,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>11</v>
@@ -5032,19 +4996,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5052,19 +5016,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5072,19 +5036,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5092,16 +5056,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
@@ -5112,16 +5076,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>8</v>
@@ -5132,16 +5096,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>11</v>
@@ -5152,19 +5116,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5172,19 +5136,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5192,19 +5156,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5212,19 +5176,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E178" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5232,19 +5196,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5252,19 +5216,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5272,16 +5236,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>14</v>
@@ -5292,19 +5256,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -5312,16 +5276,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
@@ -5332,59 +5296,59 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5392,141 +5356,21 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/MBF04S.xlsx
+++ b/MBF04S.xlsx
@@ -2268,7 +2268,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>79</v>
@@ -2288,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>22</v>
@@ -2308,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -2328,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -2348,7 +2348,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>79</v>
@@ -3208,7 +3208,7 @@
         <v>28</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
@@ -3248,7 +3248,7 @@
         <v>28</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
@@ -3268,7 +3268,7 @@
         <v>28</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
@@ -3288,7 +3288,7 @@
         <v>28</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>79</v>
@@ -4648,7 +4648,7 @@
         <v>324</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
@@ -4668,7 +4668,7 @@
         <v>324</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4688,7 +4688,7 @@
         <v>324</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4708,7 +4708,7 @@
         <v>324</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>22</v>
